--- a/Log and Journal/Log and Journal.xlsx
+++ b/Log and Journal/Log and Journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nourh\Documents\London South Bank University\Y2 S2\Programming\Semester 2\unitypackages\Unity Full Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nourh\Documents\London South Bank University\Y2 S2\Programming\Semester 2\unitypackages\Log and Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0118CDAB-6E8F-4838-ACE6-AF5CD5902210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7726A-2FBB-4C6B-B980-E2CD4DA8454D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{BCD19428-4C2C-44B8-8BD4-6C1E66874C71}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -60,85 +60,69 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Learning how to make Menu in Unity</t>
-  </si>
-  <si>
-    <t>Learning how to make menu in Unity, none of the tutorials available out there cover all the aspects (how to play page and so on) so I thought I combine them all and make one dope tutorial.</t>
-  </si>
-  <si>
-    <t>Set up the Task Log and Journal ( The task tab has programming in it that makes me feel so proud :D )</t>
-  </si>
-  <si>
-    <t>Making the Menu Tutorial</t>
-  </si>
-  <si>
-    <t>Submitting the work</t>
-  </si>
-  <si>
-    <t>Preping for Driving Controller Tutorial</t>
-  </si>
-  <si>
-    <t>Making the Driving Tutorial</t>
-  </si>
-  <si>
-    <t>First time I used unity, I knew how to load up Starter Asset, but I had no idea how to do it again for later time, Now I know, it can be achived by Asset&gt;Import package…&gt; then you can pick.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don’t kow why, but I assumed I have to submit on the day of deadline, even though I knew it wasn't, I had a brain fart I guess? </t>
-  </si>
-  <si>
-    <t>I realised I have been distracted by other courseworks and need to finish my Tutorials asap</t>
-  </si>
-  <si>
-    <t>Begin learning Triggering</t>
-  </si>
-  <si>
-    <t>Preparing and learning FP Controller</t>
-  </si>
-  <si>
-    <t>I realised I am going nowhere with the trigger tutorial, so I decided to move on for now and do FP Controller and come back to trigger tutorial with fresher mind set.</t>
-  </si>
-  <si>
-    <t>Writing up the Tutorial FPC</t>
-  </si>
-  <si>
-    <t>Note to self: Don’t code with headaches, not a good combo</t>
-  </si>
-  <si>
-    <t>note to self: don’t work at home, family is distracting</t>
-  </si>
-  <si>
-    <t>Learn how triggers work</t>
-  </si>
-  <si>
-    <t>Make the tutorial for Triggering and having a wall move up</t>
-  </si>
-  <si>
-    <t>Combining as many behaviours as I can to make a game</t>
-  </si>
-  <si>
-    <t>Firstly, asking people for help, in this case for codes, requires far more bravery than I realised. Secondly, I seriously need to remember the differete usage of OnTriggerStay,Entre and Exit. It can really mess you up. and Lastly, always, ALWAYS remember to tick that "Triger" box in collider</t>
-  </si>
-  <si>
-    <t>I couldn't just use one behaviour, so I ended up using one from Alex to help with the booster of the car and many behaviours I wrote because it made the Unity project look much nicer, lets hope I don't get in trouble for doing more.</t>
-  </si>
-  <si>
-    <t>I have finished all that was required to submit, but VLE is down and I just am gonna wait till I see Paul before uploading. This is goodbye Journal, Adios (^-^)/</t>
-  </si>
-  <si>
     <t>Finishing Logs and Journal</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Exporting the Package</t>
+  </si>
+  <si>
+    <t>Making the Menu</t>
+  </si>
+  <si>
+    <t>Making the Driving Package</t>
+  </si>
+  <si>
+    <t>Making the First Person Controller</t>
+  </si>
+  <si>
+    <t>Making the wall Package</t>
+  </si>
+  <si>
+    <t>Making the Camera swap Pack</t>
+  </si>
+  <si>
+    <t>Total Estimate</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Estimate Error</t>
+  </si>
+  <si>
+    <t>Set up the Task Log and Journal (Re using my old one, just adding some new columes and volumes. New programming to Excel also added )</t>
+  </si>
+  <si>
+    <t>I tried to upload pics to explain what needs to be done, but I didn't count in the image process takes so much time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For some reason, the car was too heavy to controll and the fun is just missing, I dropped down the Mass but it really isn’t helping much. I have to look into this more to find out what to do.  </t>
+  </si>
+  <si>
+    <t>I missed making first person controlls, for a very long time I was wondering why my character is just falling, then remembered there is no rigitbody or anything really.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wall trigger just wouldn't work, I couldn't figure out why that was. So I did what a real engineer would do, I turned it off and on again! I deleted the box colider and made a new one. It worked like a charm </t>
+  </si>
+  <si>
+    <t>At first I thought this would be easy, its just switching on and off camera, but soon I realised the way I had it programmed it would just switch once. I changed the location of my programing to voide update, that just made it switch constantly. That was a huge shocker (not really, just my stupidity) then I began to look at the code from completley new direction. Everything start to work like clock gear falling into place. It was very sweet ending.</t>
+  </si>
+  <si>
+    <t>Note to self: Read all the requirment for the CW, I realised I needed to upload some new information, last minute editing is least of my favs, but what needs to be done, needs to be done!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +160,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -265,12 +262,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,6 +284,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,32 +640,32 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12" style="22" customWidth="1"/>
-    <col min="4" max="4" width="1" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="0.21875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="22"/>
-    <col min="8" max="8" width="0.21875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="0.21875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="0.6640625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" style="22" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="80" style="7" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12" style="20" customWidth="1"/>
+    <col min="4" max="4" width="1" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="0.21875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="20"/>
+    <col min="8" max="8" width="0.21875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="0.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="0.33203125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="0.6640625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="83.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="1"/>
       <c r="C1" s="9"/>
@@ -650,38 +680,44 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="10"/>
@@ -695,13 +731,15 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="11">
-        <v>43389</v>
+        <v>43508</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="18">
@@ -719,16 +757,20 @@
       <c r="K4" s="12">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="29">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="11">
-        <v>43389</v>
+        <v>43508</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="18">
@@ -746,16 +788,18 @@
       <c r="K5" s="12">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="11">
-        <v>43395</v>
+        <v>43522</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="18">
@@ -771,75 +815,70 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="12">
-        <f t="shared" ref="K6:K16" si="0">G6-E6-I6</f>
+        <f t="shared" ref="K6:K15" si="0">G6-E6-I6</f>
         <v>8.4537037037036911E-2</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6" s="27"/>
+      <c r="M6" s="29">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="11">
-        <v>43395</v>
+        <v>43522</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="18">
-        <v>0.74181712962962953</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12">
-        <v>0.84157407407407403</v>
+        <v>0.64803240740740742</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="12">
-        <v>2.3495370370370371E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="18">
         <f t="shared" si="0"/>
-        <v>9.7407407407407456E-2</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.1990740740740478E-3</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="11">
-        <v>43396</v>
-      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="18">
-        <v>0.61012731481481486</v>
-      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="12">
-        <v>0.61388888888888882</v>
-      </c>
+      <c r="G8" s="33"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
+      <c r="I8" s="33"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="18">
-        <f t="shared" si="0"/>
-        <v>3.7615740740739589E-3</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="32"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="11">
-        <v>43398</v>
+        <v>43529</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="18">
@@ -847,91 +886,88 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12">
-        <v>0.54083333333333339</v>
+        <v>0.7906712962962964</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="12">
-        <v>1.6782407407407406E-3</v>
+        <v>4.0046296296296297E-3</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>5.8275462962963043E-2</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.30578703703703719</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="11">
-        <v>43398</v>
+        <v>43529</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="18">
-        <v>0.54166666666666663</v>
+        <v>0.79333333333333333</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="12">
-        <v>0.9156712962962964</v>
+        <v>0.79902777777777778</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="12">
-        <v>5.3009259259259251E-3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="18">
         <f t="shared" si="0"/>
-        <v>0.36870370370370387</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.6944444444444464E-3</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="18">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="11">
-        <v>43410</v>
-      </c>
+      <c r="C11" s="30"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="18">
-        <v>0.60859953703703706</v>
-      </c>
+      <c r="E11" s="32"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="12">
-        <v>0.65899305555555554</v>
-      </c>
+      <c r="G11" s="33"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="12">
-        <v>1.0416666666666666E-2</v>
-      </c>
+      <c r="I11" s="33"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>3.9976851851851812E-2</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="32"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="11">
-        <v>43412</v>
+        <v>43536</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="18">
-        <v>0.51893518518518522</v>
+        <v>0.55266203703703709</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12">
-        <v>0.55983796296296295</v>
+        <v>0.63928240740740738</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="12">
@@ -940,169 +976,312 @@
       <c r="J12" s="10"/>
       <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>3.7430555555555509E-2</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.3148148148148068E-2</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="11">
-        <v>43412</v>
+        <v>43536</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="18">
-        <v>0.56030092592592595</v>
+        <v>0.6428935185185185</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12">
-        <v>0.60039351851851852</v>
+        <v>0.64973379629629624</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="12">
-        <v>0</v>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="18">
         <f t="shared" si="0"/>
-        <v>4.0092592592592569E-2</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.6296296296295895E-3</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="18">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="11">
-        <v>43414</v>
-      </c>
+      <c r="C14" s="30"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="18">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12">
-        <v>0.57638888888888895</v>
-      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="12">
-        <v>2.1412037037037035E-2</v>
-      </c>
+      <c r="I14" s="33"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="18">
-        <f t="shared" si="0"/>
-        <v>4.4560185185185286E-2</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="32"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="11">
-        <v>43414</v>
+        <v>43571</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="18">
-        <v>0.57998842592592592</v>
+      <c r="E15" s="34">
+        <v>0.68526620370370372</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="12">
-        <v>0.66743055555555564</v>
+      <c r="G15" s="29">
+        <v>0.85671296296296295</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="12">
+      <c r="I15" s="29">
         <v>3.0324074074074073E-2</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="18">
+      <c r="K15" s="34">
         <f t="shared" si="0"/>
-        <v>5.7118055555555644E-2</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.14112268518518517</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="34">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="11">
-        <v>43443</v>
+        <v>43571</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="18">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12">
-        <v>0.99232638888888891</v>
-      </c>
+      <c r="G16" s="29"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="12">
-        <v>2.9861111111111113E-2</v>
-      </c>
+      <c r="I16" s="29"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="19">
-        <f t="shared" si="0"/>
-        <v>0.37913194444444442</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K16" s="34"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="11">
-        <v>43444</v>
-      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="18">
-        <v>0.99236111111111114</v>
-      </c>
+      <c r="E17" s="32"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12">
-        <v>5.5555555555555558E-3</v>
-      </c>
+      <c r="G17" s="33"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="12">
+      <c r="I17" s="33"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="11">
+        <v>43578</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="18">
+        <v>0.66680555555555554</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12">
+        <v>0.84500000000000008</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12">
+        <v>2.7256944444444445E-2</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="18">
+        <f>G18-E18-I18</f>
+        <v>0.15093750000000011</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="18">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="11">
+        <v>43578</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="18">
+        <v>0.84567129629629623</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12">
+        <v>0.84745370370370365</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12">
+      <c r="J19" s="10"/>
+      <c r="K19" s="18">
+        <f>G19-E19-I19</f>
+        <v>1.782407407407427E-3</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="18">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="11">
+        <v>43588</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18">
+        <v>0.71912037037037047</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12">
+        <v>0.74201388888888886</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="2"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="M23" s="39">
+        <f>M4+M6+M9+M10+M12+M13+M15+M18+M19+M21</f>
+        <v>0.75902777777777775</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="M24" s="39">
+        <f>K4+K5+K6+K7+K9+K10+K12+K13+K15+K18+K19+K21</f>
+        <v>0.79714120370370378</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="M25" s="20">
+        <f>M24/M23</f>
+        <v>1.0502134797194269</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1113,10 +1292,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,18 +1317,10 @@
     <col min="15" max="15" width="1" style="7" customWidth="1"/>
     <col min="16" max="16" width="30.77734375" style="7" customWidth="1"/>
     <col min="17" max="17" width="1" style="7" customWidth="1"/>
-    <col min="18" max="18" width="33.44140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="1.21875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="51.77734375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="1.77734375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="52.5546875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="2.33203125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="30.77734375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="2.44140625" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1167,69 +1338,43 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="16">
-        <v>43389</v>
+        <v>43508</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="16">
-        <v>43395</v>
+        <v>43522</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="16">
-        <v>43398</v>
+        <v>43529</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="16">
-        <v>43405</v>
+        <v>43536</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="16">
-        <v>43410</v>
+        <v>43571</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="16">
-        <v>43412</v>
+        <v>43578</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="16">
-        <v>43412</v>
+        <v>43588</v>
       </c>
       <c r="Q2" s="17"/>
-      <c r="R2" s="16">
-        <v>43414</v>
-      </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="20">
-        <v>43443</v>
-      </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="16">
-        <v>43444</v>
-      </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="16">
-        <v>43444</v>
-      </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" spans="1:26" s="22" customFormat="1" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" s="20" customFormat="1" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1247,69 +1392,43 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" s="23" customFormat="1" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" s="21" customFormat="1" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="15"/>
-      <c r="R4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="5" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1327,15 +1446,6 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
